--- a/data/trans_camb/P40_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P40_R2-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-5.33316115751726</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.002506727197235104</v>
+        <v>-0.002506727197237879</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.917180443136886</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.488377712444487</v>
+        <v>-5.142740487958308</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.640719570643581</v>
+        <v>-6.653152588180348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.933852515416701</v>
+        <v>-2.23859326365114</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.052077718812694</v>
+        <v>-9.514895566745682</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-10.94053162801501</v>
+        <v>-10.98638419341067</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.25584959474851</v>
+        <v>-4.908911234363975</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.41499621666446</v>
+        <v>-5.696365831811955</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.710103990101899</v>
+        <v>-6.541507391024597</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.870150142906326</v>
+        <v>-2.134805445756575</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.998193980005256</v>
+        <v>4.220185408219102</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.545913461219541</v>
+        <v>1.998494672419381</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.230541651970498</v>
+        <v>6.001486522924075</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.768812972032453</v>
+        <v>2.552971985883156</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.1042685155623711</v>
+        <v>0.1833888719914782</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.931833704159374</v>
+        <v>5.328865142874985</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.809331847775666</v>
+        <v>1.66709673690551</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1637001100244315</v>
+        <v>0.08584851804662499</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.485033013682823</v>
+        <v>4.496803518329041</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.3273213389158234</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.0001538497109428571</v>
+        <v>-0.0001538497109430274</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.1396678491332314</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3953841273227908</v>
+        <v>-0.3644385300075709</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4778415424442262</v>
+        <v>-0.4681364537596642</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1371321132642241</v>
+        <v>-0.1635827809973994</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4806152954312022</v>
+        <v>-0.4935067408797922</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5738295869605067</v>
+        <v>-0.5612833617792709</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2585821855005323</v>
+        <v>-0.2444677566126564</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3527660257347674</v>
+        <v>-0.3604081766898086</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4356274538020165</v>
+        <v>-0.4376905329568455</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1214814009245946</v>
+        <v>-0.1349066224484969</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2947722035679158</v>
+        <v>0.4433207932166033</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1622091152155393</v>
+        <v>0.2079082370950714</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6352954571466103</v>
+        <v>0.6164011128911897</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2048095354901232</v>
+        <v>0.218595289180744</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.006942818447914454</v>
+        <v>0.01791359081508903</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3904900440344308</v>
+        <v>0.4272936784094877</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.147869231344485</v>
+        <v>0.1466117815633479</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.0118188047333669</v>
+        <v>-0.006816276049777637</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3766309378567823</v>
+        <v>0.3665583784280448</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.165772519848068</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.909948865142949</v>
+        <v>1.909948865142946</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-2.533049409672341</v>
@@ -869,7 +869,7 @@
         <v>-1.915833068618006</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.461464594343834</v>
+        <v>1.461464594343836</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.54482872475136</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.92978447887639</v>
+        <v>-5.498564282272874</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.205140575782194</v>
+        <v>-6.081057599888702</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.941981011977734</v>
+        <v>-2.739730979181022</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.237853658425182</v>
+        <v>-7.869263360890358</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-7.879444939126998</v>
+        <v>-7.937711219641733</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.67859312947677</v>
+        <v>-3.268532579656989</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.281477076604318</v>
+        <v>-5.341230504453292</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.102859076988429</v>
+        <v>-5.18526239783905</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.928509827000607</v>
+        <v>-2.019259771535413</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.453293568785258</v>
+        <v>4.581387304155384</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.925786634961541</v>
+        <v>4.029631015266666</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.328202867655337</v>
+        <v>6.565511545114335</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.224393805480155</v>
+        <v>3.646449822919815</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.779651668975555</v>
+        <v>3.850049697824056</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.39572123280414</v>
+        <v>7.142330427726158</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.197081674523981</v>
+        <v>2.228427848705886</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.440007474338013</v>
+        <v>2.286334087044107</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.900277215711183</v>
+        <v>4.698870922835184</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.09508237201714</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1557786492967804</v>
+        <v>0.1557786492967802</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1509060006384599</v>
@@ -974,7 +974,7 @@
         <v>-0.1141354389583142</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08706651207236622</v>
+        <v>0.08706651207236639</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1062398570296704</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3492576371494602</v>
+        <v>-0.3690449961969047</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.436275560540635</v>
+        <v>-0.4038903879744465</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1997946879823491</v>
+        <v>-0.1855665784444387</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4370633954818055</v>
+        <v>-0.4172887443810746</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4071041265963745</v>
+        <v>-0.3812316618290762</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1855266796735985</v>
+        <v>-0.1666170974931878</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3241352698163503</v>
+        <v>-0.3145502057854299</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.311763757978365</v>
+        <v>-0.3166767694804507</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1157528721783942</v>
+        <v>-0.122758608876491</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4712972664196759</v>
+        <v>0.4621402475209799</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4219668315393403</v>
+        <v>0.4395603427887049</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6289724815206594</v>
+        <v>0.6928652010471347</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2267752170437141</v>
+        <v>0.2724491416131914</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2509641204446837</v>
+        <v>0.300878927172515</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.459641734517694</v>
+        <v>0.5346737535074302</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1735921777386935</v>
+        <v>0.1886071631612906</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1996606000549087</v>
+        <v>0.1776343241960303</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3871505048525147</v>
+        <v>0.3638008759393394</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.8915462333300678</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.998467595184535</v>
+        <v>3.998467595184532</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-5.465161987730069</v>
@@ -1083,7 +1083,7 @@
         <v>1.515071810505375</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.772277445329201</v>
+        <v>1.772277445329207</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.804561443009431</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4145577158382588</v>
+        <v>-0.7424036862659091</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.999480917300845</v>
+        <v>-3.877386770307262</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8243200981724498</v>
+        <v>-0.6009540450469909</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-14.20627860853185</v>
+        <v>-14.82014470770086</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.570723095079423</v>
+        <v>-9.583811280677024</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.612092710574901</v>
+        <v>-8.095208156423139</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.029817985973468</v>
+        <v>-1.846846103274367</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.105022270979605</v>
+        <v>-2.96642163311418</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.023507256460417</v>
+        <v>-0.295020896003524</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.985479011451448</v>
+        <v>8.689904838269682</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.133686465035082</v>
+        <v>5.948885902415778</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.880340508505547</v>
+        <v>9.15316021050346</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.778098666712503</v>
+        <v>3.726447242154179</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.36685808453467</v>
+        <v>11.48474281877147</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.853295253701218</v>
+        <v>10.11605476809123</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.692041089067049</v>
+        <v>6.427099486268846</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.217058737843749</v>
+        <v>5.913239615327737</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.056122218019974</v>
+        <v>8.469119548295645</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.05177074629760126</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2321849879577042</v>
+        <v>0.2321849879577041</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1915077720862621</v>
@@ -1188,7 +1188,7 @@
         <v>0.05309047154174026</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06210335683292306</v>
+        <v>0.06210335683292326</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.09068877977591243</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02182615047820696</v>
+        <v>-0.04101265727839842</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2008436511970374</v>
+        <v>-0.2029102901572463</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.03855245647441165</v>
+        <v>-0.03684904513218468</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4199853664867559</v>
+        <v>-0.4342203693504584</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2528580886271919</v>
+        <v>-0.2959367576816838</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2357266874573653</v>
+        <v>-0.2312035134804365</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.08965269767755192</v>
+        <v>-0.08505567509877719</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1424075587067017</v>
+        <v>-0.140653059842117</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.04626614859972514</v>
+        <v>-0.01502175197733742</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6307573041644179</v>
+        <v>0.5723114103718674</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3408646289487062</v>
+        <v>0.3874085477876077</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5957900300343608</v>
+        <v>0.6380083236944607</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1654958346339617</v>
+        <v>0.162378672669528</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4961299713255895</v>
+        <v>0.4928058680741328</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4178420978171974</v>
+        <v>0.4162107811870716</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3226109673744957</v>
+        <v>0.363956843267395</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2956706205487058</v>
+        <v>0.3370984332068299</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4350527116774063</v>
+        <v>0.4724057911537143</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.539236192584004</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.257186033372665</v>
+        <v>2.257186033372663</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-3.372522187031407</v>
@@ -1297,7 +1297,7 @@
         <v>-4.285022527318239</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.7780564031128617</v>
+        <v>-0.7780564031128645</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.2291195900816723</v>
@@ -1306,7 +1306,7 @@
         <v>-2.424457520001086</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.278062556434506</v>
+        <v>1.278062556434509</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.964566993618287</v>
+        <v>-1.055386541021793</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.836463035931033</v>
+        <v>-4.647934264451761</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.370544986373978</v>
+        <v>-0.9487960149223851</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.832490149238041</v>
+        <v>-7.954714383266823</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.681592129145244</v>
+        <v>-8.690731964816024</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.308167445735124</v>
+        <v>-5.173488791078956</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.478281305985845</v>
+        <v>-2.406594444070989</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.045733565291876</v>
+        <v>-4.953268710849683</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.052899332713762</v>
+        <v>-1.241103982517223</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.697914913610131</v>
+        <v>5.695615480680291</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.703105521703845</v>
+        <v>1.865318778309286</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.466181171707333</v>
+        <v>5.423761397493113</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.914011301259781</v>
+        <v>1.019146405382868</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.2387909346174037</v>
+        <v>0.3780802885347054</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.967068503067938</v>
+        <v>2.923965777443509</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.065332732755157</v>
+        <v>2.900641624862789</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.279278125138639</v>
+        <v>0.2399575660938456</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.856769975605205</v>
+        <v>3.678682270919003</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.07917045679135463</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1160981337277301</v>
+        <v>0.11609813372773</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1378250712801519</v>
@@ -1402,7 +1402,7 @@
         <v>-0.1751162787114357</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.03179687879634106</v>
+        <v>-0.03179687879634117</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.01076585737883008</v>
@@ -1411,7 +1411,7 @@
         <v>-0.1139202626543616</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.06005352575435455</v>
+        <v>0.06005352575435469</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04527864168191945</v>
+        <v>-0.05141774515758673</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2349963880488085</v>
+        <v>-0.2220844609502954</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.06445069592983142</v>
+        <v>-0.04402385871213925</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2935984965559675</v>
+        <v>-0.297456417800723</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3316312418608455</v>
+        <v>-0.3272540799838149</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1928003265147392</v>
+        <v>-0.1905371623397881</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1087966098356146</v>
+        <v>-0.1066171817588732</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2238696924486835</v>
+        <v>-0.2184190223414716</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.04542815481473151</v>
+        <v>-0.0573959506690889</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3190093735088141</v>
+        <v>0.3090730292527472</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.09476470804950728</v>
+        <v>0.1046349540360841</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3075817163036296</v>
+        <v>0.3066568194342952</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.04223329197933991</v>
+        <v>0.04580355244297783</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.01059846875072536</v>
+        <v>0.01163700223171595</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.134838664448759</v>
+        <v>0.131534016784259</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1577314059463162</v>
+        <v>0.1448827173083889</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0130738869074106</v>
+        <v>0.01293786281956608</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1932648406084543</v>
+        <v>0.1826010453335107</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>1.944807832637702</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.612557924342148</v>
+        <v>1.612557924342142</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.213649017680737</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-10.24894715846985</v>
+        <v>-9.378746390408619</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.33088460128445</v>
+        <v>-3.76777291167775</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.017549557739922</v>
+        <v>-4.204646572938271</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.447715095774134</v>
+        <v>-1.367021326427022</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.228936142463208</v>
+        <v>-4.532661237087727</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.061059993100312</v>
+        <v>1.613308915506351</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.311320181082102</v>
+        <v>-3.002757562158545</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.302739850590356</v>
+        <v>-3.146868166099681</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.628199620485435</v>
+        <v>0.3965540576430128</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.171787506165812</v>
+        <v>1.442706654674735</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.665267632917168</v>
+        <v>7.361246701161604</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.314832519835221</v>
+        <v>6.714355645315287</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.458780122806898</v>
+        <v>9.263782133000324</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.558621144849893</v>
+        <v>6.403448576078128</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>11.44914374948167</v>
+        <v>11.02790077675415</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.666605605315266</v>
+        <v>4.995095930301222</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.609164623049101</v>
+        <v>4.377057919647269</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.269680689403227</v>
+        <v>7.962386883676892</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.09407410718496116</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.07800253807635806</v>
+        <v>0.07800253807635778</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.136585250665734</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4157160085076076</v>
+        <v>-0.3910796400375134</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1378308425802327</v>
+        <v>-0.15829458030938</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1666406504727638</v>
+        <v>-0.1735333222591425</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.04325324253122163</v>
+        <v>-0.03836627044175152</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1264864946511494</v>
+        <v>-0.1304028114774595</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05675201535022034</v>
+        <v>0.05409219187637088</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1143218432383609</v>
+        <v>-0.1041632122159671</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1118895578251436</v>
+        <v>-0.1094365886604806</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.02152858694713775</v>
+        <v>0.01296602747656076</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.06657776243661941</v>
+        <v>0.09400138879708977</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4345240860884675</v>
+        <v>0.4279085989974596</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4426973801036755</v>
+        <v>0.3938876170668458</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3406414012762851</v>
+        <v>0.3376961359564467</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2346600081717954</v>
+        <v>0.2334499009543068</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4202157792899545</v>
+        <v>0.3879501184586401</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1908975066350249</v>
+        <v>0.2025658455816151</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1905465678878845</v>
+        <v>0.1807521567281867</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3373286548105172</v>
+        <v>0.3233043630333677</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>1.37955420165045</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3.994286226273725</v>
+        <v>3.994286226273724</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-2.131920394283288</v>
@@ -1725,7 +1725,7 @@
         <v>-4.883936149182361</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-3.20737608603664</v>
+        <v>-3.207376086036645</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-1.821187080557296</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.407180625136903</v>
+        <v>-4.310741231254223</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.23109997378606</v>
+        <v>-2.349729395092583</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.6371659637801645</v>
+        <v>-0.3523972603043769</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.87661204384202</v>
+        <v>-6.082921238020433</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-8.466345587742593</v>
+        <v>-8.875242955459921</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.860571784198457</v>
+        <v>-7.133962248313747</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-5.121094102770891</v>
+        <v>-4.943064987373338</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-7.421758017966168</v>
+        <v>-7.492089236857259</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-6.006628210562075</v>
+        <v>-5.806924270824856</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.194190695639658</v>
+        <v>2.374905989995038</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.691009089359966</v>
+        <v>4.893713827622878</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9.43289743909598</v>
+        <v>9.939824281262652</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.7211686481896</v>
+        <v>1.959589930189752</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-0.8015465692434378</v>
+        <v>-0.6846723413806405</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.7357557912817289</v>
+        <v>0.6061887670711981</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.625823914400804</v>
+        <v>1.723312161952223</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.6543463932538346</v>
+        <v>-0.7621531198033369</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.786023311815171</v>
+        <v>1.12765253593723</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.3240667008034988</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.9382851053367752</v>
+        <v>0.9382851053367749</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.05890446730575261</v>
@@ -1830,7 +1830,7 @@
         <v>-0.1349420259754165</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.08861905927810798</v>
+        <v>-0.08861905927810813</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.06064640619275186</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7684624621620477</v>
+        <v>-0.7572269408907445</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4111202809504909</v>
+        <v>-0.419236571997863</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2150030162699466</v>
+        <v>-0.08802065094103656</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1562381299912263</v>
+        <v>-0.161856404581362</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2260348948791208</v>
+        <v>-0.235081169998638</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1843789840241842</v>
+        <v>-0.1871000363395894</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1602064229117611</v>
+        <v>-0.1579921347002777</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2388971046329081</v>
+        <v>-0.235805208873107</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1928873063074333</v>
+        <v>-0.1843236289510353</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.8756735796778041</v>
+        <v>0.9985217871692204</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.70600883450277</v>
+        <v>1.822250093211923</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3.275929519130055</v>
+        <v>3.784388758884968</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.05063866513847941</v>
+        <v>0.05410109034934048</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.02307859933288117</v>
+        <v>-0.02041766756477673</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02106232097986883</v>
+        <v>0.01773541288463799</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.05770445307064324</v>
+        <v>0.06111103822398535</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.02302645971974574</v>
+        <v>-0.028112972770356</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.02590360430892064</v>
+        <v>0.04018173580655096</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>0.005370319260525336</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2.596829781471927</v>
+        <v>2.596829781471924</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-1.583343194740233</v>
@@ -1948,7 +1948,7 @@
         <v>-1.718230597154841</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.9386942495633432</v>
+        <v>0.9386942495633377</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.8032014877699658</v>
+        <v>-0.9686409725065128</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.704456570079935</v>
+        <v>-1.805632585620901</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.7516665471160884</v>
+        <v>0.8928007919815111</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.580590347598848</v>
+        <v>-3.838366223024591</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-5.853289517195147</v>
+        <v>-5.737526268416518</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.825370738670898</v>
+        <v>-2.595412596341679</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.781509837139164</v>
+        <v>-1.729280466021583</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.22430475576885</v>
+        <v>-3.078737556111328</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.3651473577862091</v>
+        <v>-0.507188081991691</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.744268225032561</v>
+        <v>2.773943976298409</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.871937327465557</v>
+        <v>1.820809463712143</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.421141122962934</v>
+        <v>4.411687186327764</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.6964818532300335</v>
+        <v>0.6591696298630709</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-1.192413637078714</v>
+        <v>-1.192196407743321</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.242507059425294</v>
+        <v>1.247916715631803</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.071746647443888</v>
+        <v>1.168563522720365</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.3339529453381672</v>
+        <v>-0.2763057475259595</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.355029279953932</v>
+        <v>2.345702829428268</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.0003367807850391057</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.1628510950634792</v>
+        <v>0.162851095063479</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.05558072259397688</v>
@@ -2053,7 +2053,7 @@
         <v>-0.07698336219323264</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.04205712523249137</v>
+        <v>0.04205712523249112</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.04896712696793983</v>
+        <v>-0.05909592548469775</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1018507637551148</v>
+        <v>-0.1078522831365892</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.04550733430471557</v>
+        <v>0.05315727921926313</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.121269206919936</v>
+        <v>-0.1304155930597591</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1968409433576983</v>
+        <v>-0.1930053543919426</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.09341960765665176</v>
+        <v>-0.0876069330184743</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.0776207015476523</v>
+        <v>-0.07536140083111451</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1406778041657103</v>
+        <v>-0.1330017504988453</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.0158353900631269</v>
+        <v>-0.02246745968365938</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1878358905077604</v>
+        <v>0.1855602942312143</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1251942938683489</v>
+        <v>0.1243924652843041</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3010137326509877</v>
+        <v>0.2938214927811501</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.02706035307302721</v>
+        <v>0.02145084087274747</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.04468425912814013</v>
+        <v>-0.04275689401304436</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.04595382453470204</v>
+        <v>0.04554744353999838</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.04941842033464906</v>
+        <v>0.05342998736169564</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.01521770220175949</v>
+        <v>-0.01044237359321131</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1083863796901316</v>
+        <v>0.1094302582897288</v>
       </c>
     </row>
     <row r="46">
